--- a/search - test.xlsx
+++ b/search - test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royko\git\roi_java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777CF65-2D24-4677-8A13-D3026D3CFEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D117163-5A39-4357-8887-2A496F85CBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3855" windowWidth="31020" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31935" yWindow="5370" windowWidth="19905" windowHeight="17145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_search" sheetId="1" r:id="rId1"/>
+    <sheet name="text_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="175">
   <si>
     <t>שטוקהולם</t>
   </si>
@@ -231,9 +232,6 @@
     <t>WHERE'S KARL ?</t>
   </si>
   <si>
-    <t>ALICE IN WONDERLAND</t>
-  </si>
-  <si>
     <t>GREECE MARCO POLO MAP</t>
   </si>
   <si>
@@ -430,6 +428,129 @@
   </si>
   <si>
     <t>בית וקמפינג</t>
+  </si>
+  <si>
+    <t>סמסונג</t>
+  </si>
+  <si>
+    <t>בושם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מעבד מזון </t>
+  </si>
+  <si>
+    <t>אוזניות</t>
+  </si>
+  <si>
+    <t>תיק</t>
+  </si>
+  <si>
+    <t>מארז</t>
+  </si>
+  <si>
+    <t>כרית</t>
+  </si>
+  <si>
+    <t>ספורים</t>
+  </si>
+  <si>
+    <t>נעה ידלין</t>
+  </si>
+  <si>
+    <t>סקל עמנואל אלוף (מיל')</t>
+  </si>
+  <si>
+    <t>גרג הורביץ</t>
+  </si>
+  <si>
+    <t>נקמולי/פיאטלי</t>
+  </si>
+  <si>
+    <t>מיה בלייק</t>
+  </si>
+  <si>
+    <t>ועדו נתניהו בנימין</t>
+  </si>
+  <si>
+    <t>נעם חורב</t>
+  </si>
+  <si>
+    <t>מישקה בן-דוד</t>
+  </si>
+  <si>
+    <t>מאיר שלו</t>
+  </si>
+  <si>
+    <t>שטיינזלץ עדין אבן-ישראל הרב</t>
+  </si>
+  <si>
+    <t>ג'.ר.ר טולקין</t>
+  </si>
+  <si>
+    <t>KINNEY, JEFF</t>
+  </si>
+  <si>
+    <t>RIORDAN, RICK</t>
+  </si>
+  <si>
+    <t>KAHNEMAN, DANIEL</t>
+  </si>
+  <si>
+    <t>CLINTON, HILLARY</t>
+  </si>
+  <si>
+    <t>SHAVIT, ARI</t>
+  </si>
+  <si>
+    <t>TAGAR, VIVIANA</t>
+  </si>
+  <si>
+    <t>ALICE IN WONDERLAND L5</t>
+  </si>
+  <si>
+    <t>כגד</t>
+  </si>
+  <si>
+    <t>/*/*</t>
+  </si>
+  <si>
+    <t>עכגעכgffdgdf</t>
+  </si>
+  <si>
+    <t>גכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכד</t>
+  </si>
+  <si>
+    <t>מילות מפתח</t>
+  </si>
+  <si>
+    <t>סופרים</t>
+  </si>
+  <si>
+    <t>סופרים באנגלית</t>
+  </si>
+  <si>
+    <t>גכדכdsgg/*/*</t>
+  </si>
+  <si>
+    <t>dsdas/*/*</t>
+  </si>
+  <si>
+    <t>גכגדכגד/*/*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בדיקות שליליות </t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בדיקות גבולות </t>
+  </si>
+  <si>
+    <t>גכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדל</t>
+  </si>
+  <si>
+    <t>גכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכד</t>
   </si>
 </sst>
 </file>
@@ -459,10 +580,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +593,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -549,11 +669,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -582,12 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -598,6 +743,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,37 +1057,36 @@
     <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="35.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -930,22 +1097,22 @@
         <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -956,22 +1123,22 @@
         <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -982,22 +1149,22 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1008,22 +1175,22 @@
         <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1034,22 +1201,22 @@
         <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1060,16 +1227,16 @@
         <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1079,20 +1246,20 @@
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>129</v>
+      <c r="C8" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1103,16 +1270,16 @@
         <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>131</v>
+        <v>84</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1120,16 +1287,16 @@
         <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>124</v>
+        <v>106</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1137,16 +1304,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1154,28 +1321,28 @@
         <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1185,17 +1352,17 @@
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>128</v>
+      <c r="B14" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1203,7 +1370,7 @@
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1216,10 +1383,10 @@
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1231,7 +1398,7 @@
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1244,7 +1411,7 @@
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1257,7 +1424,7 @@
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1270,7 +1437,7 @@
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1283,7 +1450,7 @@
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1296,7 +1463,7 @@
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1309,7 +1476,7 @@
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1322,7 +1489,7 @@
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1335,7 +1502,7 @@
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1348,7 +1515,7 @@
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1361,7 +1528,7 @@
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1374,7 +1541,7 @@
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1387,7 +1554,7 @@
       <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1400,7 +1567,7 @@
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1413,7 +1580,7 @@
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1426,7 +1593,7 @@
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1439,7 +1606,7 @@
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1452,7 +1619,7 @@
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1465,7 +1632,7 @@
       <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1478,7 +1645,7 @@
       <c r="A36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1491,7 +1658,7 @@
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1504,7 +1671,7 @@
       <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1517,7 +1684,7 @@
       <c r="A39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1530,7 +1697,7 @@
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1543,7 +1710,7 @@
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1556,7 +1723,7 @@
       <c r="A42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1569,7 +1736,7 @@
       <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1582,7 +1749,7 @@
       <c r="A44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1595,7 +1762,7 @@
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1608,7 +1775,7 @@
       <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1621,7 +1788,7 @@
       <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1634,7 +1801,7 @@
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1647,7 +1814,7 @@
       <c r="A49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1660,7 +1827,7 @@
       <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1673,7 +1840,7 @@
       <c r="A51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1686,7 +1853,7 @@
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1699,7 +1866,7 @@
       <c r="A53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1712,7 +1879,7 @@
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1725,7 +1892,7 @@
       <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1738,7 +1905,7 @@
       <c r="A56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1751,7 +1918,7 @@
       <c r="A57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1764,7 +1931,7 @@
       <c r="A58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1777,7 +1944,7 @@
       <c r="A59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1787,8 +1954,188 @@
       <c r="I59" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>127</v>
+      <c r="A61" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796EAA94-9FFD-48DB-9D47-DE23CBF22D0D}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E9:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="17">
+        <v>4543534</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/search - test.xlsx
+++ b/search - test.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royko\git\roi_java\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D117163-5A39-4357-8887-2A496F85CBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{56416BBC-CF9A-4C5B-8687-9D9869DDCA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="5370" windowWidth="19905" windowHeight="17145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19935" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_search" sheetId="1" r:id="rId1"/>
     <sheet name="text_search" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A3:C34"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1048,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1968,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796EAA94-9FFD-48DB-9D47-DE23CBF22D0D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E9:E16"/>
     </sheetView>
   </sheetViews>

--- a/search - test.xlsx
+++ b/search - test.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{56416BBC-CF9A-4C5B-8687-9D9869DDCA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royko\git\roi_java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F57E1-0ED0-4E7F-AB2F-69DFFBA87FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19935" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="3825" windowWidth="19905" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_search" sheetId="1" r:id="rId1"/>
     <sheet name="text_search" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A3:C34"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
   <si>
     <t>שטוקהולם</t>
   </si>
@@ -45,9 +49,6 @@
     <t>מבוכים חוברת פעילויות מהנות</t>
   </si>
   <si>
-    <t>הגן הצבעוני שלי רמה 1 גיל 3-1.5</t>
-  </si>
-  <si>
     <t>בשבח הצללים</t>
   </si>
   <si>
@@ -141,9 +142,6 @@
     <t>האידאולוגיה השלטת החדשה</t>
   </si>
   <si>
-    <t>דוד</t>
-  </si>
-  <si>
     <t>הורות לחירות</t>
   </si>
   <si>
@@ -171,9 +169,6 @@
     <t>הארנק והחרב</t>
   </si>
   <si>
-    <t>שיחון עברי גרמני / שני</t>
-  </si>
-  <si>
     <t>דיאטת 17 הימים</t>
   </si>
   <si>
@@ -252,18 +247,9 @@
     <t>סט כלים מתכת ברשת</t>
   </si>
   <si>
-    <t>מארז שוקולד וספר הכי טעים בבית-</t>
-  </si>
-  <si>
-    <t>מארז שוקולד וספר טיוטה של אושר-</t>
-  </si>
-  <si>
     <t>בקבוק ילדים קונטיגו פריחת</t>
   </si>
   <si>
-    <t>בקבוק קונטיגו CONTIGO</t>
-  </si>
-  <si>
     <t>טארוט היהודי</t>
   </si>
   <si>
@@ -279,9 +265,6 @@
     <t>יומן שיטה 2020-2021</t>
   </si>
   <si>
-    <t>מחברת מלכה</t>
-  </si>
-  <si>
     <t>מד חום דיגיטלי אינפרא אדום ללא</t>
   </si>
   <si>
@@ -351,27 +334,12 @@
     <t>Guerlain Insolence א.ד.פ 100 מ"ל בושם</t>
   </si>
   <si>
-    <t>בושם לאישה NARCISO</t>
-  </si>
-  <si>
     <t>בושם לגבר Burberry BRIT</t>
   </si>
   <si>
-    <t>בושם לגבר AL HARAMAIN</t>
-  </si>
-  <si>
     <t>מארז טיפוח ורוד GARDEN OASIS</t>
   </si>
   <si>
-    <t>מארז טיפוח GARDEN OASIS</t>
-  </si>
-  <si>
-    <t>סט מצעים למיטה וחצי מיקי ומיני</t>
-  </si>
-  <si>
-    <t>סט מצעים מיני מאוס למיטה</t>
-  </si>
-  <si>
     <t>סט מחבתות 2 חלקים 20+28 ס"מ</t>
   </si>
   <si>
@@ -547,13 +515,46 @@
   </si>
   <si>
     <t>גכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכדגכד</t>
+  </si>
+  <si>
+    <t>הגן הצבעוני שלי רמה 1 גיל 3-1.4</t>
+  </si>
+  <si>
+    <t>פצצה מתקתקת /יזהר דוד</t>
+  </si>
+  <si>
+    <t>בקבוק ילדים קונטיגו פריחת הדובדבן STRIKER CONTIGO</t>
+  </si>
+  <si>
+    <t>מחברת קנבס 916 מפת ישראל</t>
+  </si>
+  <si>
+    <t>בושם לאישה Narciso Ambree א.ד.פ 90 מ"ל</t>
+  </si>
+  <si>
+    <t>בושם לגבר AL HARAMAIN LAventure א.ד.פ 100 מ"ל</t>
+  </si>
+  <si>
+    <t>מארז טיפוח GARDEN OASIS מארז תחרה זהב</t>
+  </si>
+  <si>
+    <t>סט מצעים למיטה וחצי מיקי ומיני מאוס- דגם In Love</t>
+  </si>
+  <si>
+    <t>סט מצעים למיטה וחצי- פו הדב</t>
+  </si>
+  <si>
+    <t>מארז שוקולד וספר הכי טעים בבית- ROY CHOCOLATE</t>
+  </si>
+  <si>
+    <t>מארז שוקולד וספר טיוטה של אושר- ROY CHOCOLATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +580,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -700,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -762,6 +769,15 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,17 +1061,19 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1063,269 +1081,269 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
+      <c r="B1" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
+      <c r="B3" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
+      <c r="B5" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>65</v>
+      <c r="B7" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>67</v>
+      <c r="B9" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>159</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>68</v>
+      <c r="B11" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,10 +1353,10 @@
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1346,25 +1364,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="1"/>
@@ -1377,12 +1395,12 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1392,7 +1410,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="1"/>
@@ -1405,7 +1423,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="1"/>
@@ -1418,7 +1436,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
@@ -1431,7 +1449,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="1"/>
@@ -1444,7 +1462,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
@@ -1457,7 +1475,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="1"/>
@@ -1470,7 +1488,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="1"/>
@@ -1483,7 +1501,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="1"/>
@@ -1496,7 +1514,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
@@ -1509,7 +1527,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
@@ -1522,7 +1540,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
@@ -1535,7 +1553,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
@@ -1548,7 +1566,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
@@ -1561,7 +1579,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="1"/>
@@ -1574,7 +1592,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
@@ -1587,7 +1605,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="1"/>
@@ -1600,7 +1618,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
@@ -1613,7 +1631,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="1"/>
@@ -1626,7 +1644,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
@@ -1639,7 +1657,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
@@ -1652,7 +1670,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
@@ -1665,7 +1683,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="1"/>
@@ -1678,7 +1696,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="1"/>
@@ -1691,7 +1709,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="1"/>
@@ -1704,7 +1722,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="1"/>
@@ -1717,7 +1735,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="1"/>
@@ -1730,7 +1748,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="1"/>
@@ -1743,7 +1761,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="1"/>
@@ -1756,7 +1774,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="1"/>
@@ -1769,7 +1787,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="1"/>
@@ -1782,7 +1800,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="1"/>
@@ -1795,7 +1813,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="1"/>
@@ -1808,7 +1826,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="1"/>
@@ -1821,7 +1839,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="1"/>
@@ -1834,7 +1852,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="1"/>
@@ -1847,7 +1865,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="1"/>
@@ -1860,7 +1878,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="1"/>
@@ -1873,7 +1891,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="1"/>
@@ -1886,7 +1904,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="1"/>
@@ -1899,7 +1917,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="1"/>
@@ -1912,7 +1930,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="1"/>
@@ -1925,7 +1943,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="1"/>
@@ -1937,8 +1955,8 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>32</v>
+      <c r="A59" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="1"/>
@@ -1951,10 +1969,11 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1979,159 +1998,159 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D2" s="17">
         <v>4543534</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="E4" s="26" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/search - test.xlsx
+++ b/search - test.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royko\git\roi_java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F57E1-0ED0-4E7F-AB2F-69DFFBA87FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C99322-8878-47BA-A5BC-383A64995A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="3825" windowWidth="19905" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="19905" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_search" sheetId="1" r:id="rId1"/>
     <sheet name="text_search" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="175">
   <si>
     <t>שטוקהולם</t>
   </si>
@@ -247,6 +247,12 @@
     <t>סט כלים מתכת ברשת</t>
   </si>
   <si>
+    <t>מארז שוקולד וספר הכי טעים בבית-</t>
+  </si>
+  <si>
+    <t>מארז שוקולד וספר טיוטה של אושר-</t>
+  </si>
+  <si>
     <t>בקבוק ילדים קונטיגו פריחת</t>
   </si>
   <si>
@@ -334,6 +340,9 @@
     <t>Guerlain Insolence א.ד.פ 100 מ"ל בושם</t>
   </si>
   <si>
+    <t>בושם לאישה NARCISO</t>
+  </si>
+  <si>
     <t>בושם לגבר Burberry BRIT</t>
   </si>
   <si>
@@ -526,28 +535,22 @@
     <t>בקבוק ילדים קונטיגו פריחת הדובדבן STRIKER CONTIGO</t>
   </si>
   <si>
-    <t>מחברת קנבס 916 מפת ישראל</t>
+    <t>מחברת קנבס 1464 תעשו טוב</t>
+  </si>
+  <si>
+    <t>בושם לגבר AL HARAMAIN LAventure א.ד.פ 100 מ"ל</t>
+  </si>
+  <si>
+    <t>סט מצעים למיטה וחצי מיקי ומיני מאוס- דגם In Love</t>
+  </si>
+  <si>
+    <t>סט מצעים למיטה וחצי- במבי</t>
   </si>
   <si>
     <t>בושם לאישה Narciso Ambree א.ד.פ 90 מ"ל</t>
   </si>
   <si>
-    <t>בושם לגבר AL HARAMAIN LAventure א.ד.פ 100 מ"ל</t>
-  </si>
-  <si>
     <t>מארז טיפוח GARDEN OASIS מארז תחרה זהב</t>
-  </si>
-  <si>
-    <t>סט מצעים למיטה וחצי מיקי ומיני מאוס- דגם In Love</t>
-  </si>
-  <si>
-    <t>סט מצעים למיטה וחצי- פו הדב</t>
-  </si>
-  <si>
-    <t>מארז שוקולד וספר הכי טעים בבית- ROY CHOCOLATE</t>
-  </si>
-  <si>
-    <t>מארז שוקולד וספר טיוטה של אושר- ROY CHOCOLATE</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -777,6 +780,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,8 +1080,7 @@
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1088,19 +1096,19 @@
         <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1114,19 +1122,19 @@
         <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1140,19 +1148,19 @@
         <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1166,19 +1174,19 @@
         <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1192,22 +1200,22 @@
         <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1218,19 +1226,19 @@
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>169</v>
+        <v>97</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1241,16 +1249,16 @@
         <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1261,19 +1269,19 @@
         <v>63</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1284,16 +1292,16 @@
         <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1301,16 +1309,16 @@
         <v>36</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1321,13 +1329,13 @@
         <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1338,12 +1346,12 @@
         <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,10 +1361,10 @@
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1364,19 +1372,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1400,7 +1408,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1956,7 +1964,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="1"/>
@@ -1969,7 +1977,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1984,12 +1992,12 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E9:E16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="36.25" customWidth="1"/>
@@ -1998,159 +2006,162 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D2" s="17">
         <v>4543534</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
       <c r="B9" s="17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/search - test.xlsx
+++ b/search - test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royko\git\roi_java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C99322-8878-47BA-A5BC-383A64995A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADD2E3D-8221-4E68-B7B6-E176214FE0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="19905" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="19905" windowHeight="17145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_search" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="176">
   <si>
     <t>שטוקהולם</t>
   </si>
@@ -247,12 +247,6 @@
     <t>סט כלים מתכת ברשת</t>
   </si>
   <si>
-    <t>מארז שוקולד וספר הכי טעים בבית-</t>
-  </si>
-  <si>
-    <t>מארז שוקולד וספר טיוטה של אושר-</t>
-  </si>
-  <si>
     <t>בקבוק ילדים קונטיגו פריחת</t>
   </si>
   <si>
@@ -551,6 +545,15 @@
   </si>
   <si>
     <t>מארז טיפוח GARDEN OASIS מארז תחרה זהב</t>
+  </si>
+  <si>
+    <t>מארז שוקולד וספר הכי טעים בבית- ROY CHOCOLATE</t>
+  </si>
+  <si>
+    <t>מארז שוקולד וספר טיוטה של אושר- ROY CHOCOLATE</t>
+  </si>
+  <si>
+    <t>סט מצעים</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -758,9 +761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
@@ -787,6 +787,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView rightToLeft="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1082,8 @@
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1089,269 +1092,269 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>173</v>
+        <v>91</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>174</v>
+        <v>95</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>150</v>
+      <c r="B10" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1361,10 +1364,10 @@
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1372,19 +1375,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1408,7 +1411,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="1"/>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796EAA94-9FFD-48DB-9D47-DE23CBF22D0D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2005,163 +2008,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>133</v>
+      <c r="A1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>131</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>134</v>
+      <c r="A2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="17">
         <v>4543534</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>164</v>
+      <c r="E2" s="21" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B5" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="D5" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B6" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>136</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
       <c r="B12" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
